--- a/docs/groupe/B_planning_prévisionnel.xlsx
+++ b/docs/groupe/B_planning_prévisionnel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gambey\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0890EDA-9DEE-47E0-94B1-4F9C8A50432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F57788-FC1B-40A9-90AB-314B31E846C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{553AA663-B651-41EF-B577-3242FD03AC32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{553AA663-B651-41EF-B577-3242FD03AC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning Prévisionelle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Membres</t>
   </si>
@@ -96,10 +96,40 @@
     <t>Page about</t>
   </si>
   <si>
-    <t>Menu/Regroupement</t>
-  </si>
-  <si>
     <t>Pages Secondaires</t>
+  </si>
+  <si>
+    <t>Menu/Integration</t>
+  </si>
+  <si>
+    <t>Menu/Page d'accueil</t>
+  </si>
+  <si>
+    <t>Page Billeterie</t>
+  </si>
+  <si>
+    <t>Page Choice</t>
+  </si>
+  <si>
+    <t>Page Let the Languar...</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Fin Administration/Footer</t>
+  </si>
+  <si>
+    <t>Plumecoq Augustin</t>
+  </si>
+  <si>
+    <t>Responsive Billeterie</t>
+  </si>
+  <si>
+    <t>Responsive Fin de page</t>
+  </si>
+  <si>
+    <t>Responsive/Fin d'integration</t>
   </si>
 </sst>
 </file>
@@ -136,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -193,38 +223,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -237,7 +247,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -248,7 +258,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -261,51 +271,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -317,73 +324,6 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -394,44 +334,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,6 +383,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,7 +689,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,203 +709,236 @@
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>20</v>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>20</v>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F003B50-1C0F-48BD-9EA7-E743135F76B3}">
-  <dimension ref="A9:F16"/>
+  <dimension ref="A9:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>44970</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>44970</v>
       </c>
-      <c r="D10" s="2">
-        <v>44970</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6">
         <v>44971</v>
       </c>
-      <c r="F10" s="2">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>